--- a/Week 8/SWP391_Online Shop_Comment.xlsx
+++ b/Week 8/SWP391_Online Shop_Comment.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Trần Văn Đức" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Ngô Thị Ngọc Mai" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Đinh Tiến lâm" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Bạch Ngọc Minh Châu" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Nguyễn Gia Phú" sheetId="5" r:id="rId8"/>
+    <sheet name="Trần Văn Đức" sheetId="1" r:id="rId1"/>
+    <sheet name="Ngô Thị Ngọc Mai" sheetId="2" r:id="rId2"/>
+    <sheet name="Đinh Tiến lâm" sheetId="3" r:id="rId3"/>
+    <sheet name="Bạch Ngọc Minh Châu" sheetId="4" r:id="rId4"/>
+    <sheet name="Nguyễn Gia Phú" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -151,149 +159,157 @@
   </si>
   <si>
     <t>Common Feature</t>
+  </si>
+  <si>
+    <t>3.12 Search User</t>
+  </si>
+  <si>
+    <t>13. Search User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d-m-yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\-m\-yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFB45F06"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="7"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFB45F06"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="7"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -302,7 +318,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -318,7 +334,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -332,115 +354,117 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -451,11 +475,11 @@
     <xdr:ext cx="6467475" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -472,24 +496,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -679,25 +687,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.71"/>
-    <col customWidth="1" min="2" max="2" width="65.71"/>
-    <col customWidth="1" min="3" max="3" width="23.0"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -708,7 +719,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -719,7 +730,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -730,7 +741,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -741,7 +752,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -754,7 +765,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -767,7 +778,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -778,85 +789,88 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
+      <c r="B8" s="32"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="10" ht="39.75" customHeight="1">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:9" ht="39.75" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="42.0" customHeight="1">
-      <c r="A11" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" ht="56.25" customHeight="1">
-      <c r="A12" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" ht="56.25" customHeight="1">
-      <c r="A13" s="11" t="s">
+    <row r="11" spans="1:9" ht="42" customHeight="1">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="56.25" customHeight="1">
+      <c r="A12" s="16">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="56.25" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" ht="46.5" customHeight="1">
-      <c r="A14" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" ht="46.5" customHeight="1">
-      <c r="A15" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="46.5" customHeight="1">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="46.5" customHeight="1">
+      <c r="A15" s="13">
+        <v>2</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:B8"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -867,7 +881,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -878,7 +892,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -889,7 +903,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -900,7 +914,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -913,7 +927,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -926,7 +940,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -937,135 +951,139 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
+      <c r="B8" s="32"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="C11" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="16">
+        <v>2</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="C12" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="16">
+        <v>3</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="19">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="C13" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="19">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="B15" s="20" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="16">
+        <v>4</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="16">
+        <v>5</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="19">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="C15" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="13">
+        <v>2</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:B8"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.0"/>
-    <col customWidth="1" min="2" max="2" width="56.86"/>
-    <col customWidth="1" min="3" max="3" width="21.0"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1076,7 +1094,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -1087,7 +1105,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -1098,7 +1116,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1109,7 +1127,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1122,7 +1140,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1135,7 +1153,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1146,330 +1164,354 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
+      <c r="B8" s="32"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="10">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:9" ht="46.5">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="1:9" ht="19.5">
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="25">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="26" t="s">
+      <c r="C11" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5">
+      <c r="A12" s="16">
+        <v>2</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="25">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="B13" s="26" t="s">
+      <c r="C12" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
+      <c r="A13" s="24">
+        <v>3</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="25">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="B14" s="26" t="s">
+      <c r="C13" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75">
+      <c r="A14" s="24">
+        <v>4</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="25">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="C14" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75">
+      <c r="A15" s="24">
+        <v>5</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="25">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="B16" s="26" t="s">
+      <c r="C15" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75">
+      <c r="A16" s="24">
+        <v>6</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="25">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="B17" s="26" t="s">
+      <c r="C16" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75">
+      <c r="A17" s="24">
+        <v>7</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="25">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="B18" s="26" t="s">
+      <c r="C17" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="37.5">
+      <c r="A18" s="24">
+        <v>8</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="25">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="B19" s="26" t="s">
+      <c r="C18" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="37.5">
+      <c r="A19" s="24">
+        <v>9</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="25">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="B20" s="26" t="s">
+      <c r="C19" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75">
+      <c r="A20" s="24">
+        <v>10</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="25">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="B21" s="26" t="s">
+      <c r="C20" s="24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75">
+      <c r="A21" s="24">
+        <v>11</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="25">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="25">
-        <v>12.0</v>
-      </c>
-      <c r="B22" s="26" t="s">
+      <c r="C21" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75">
+      <c r="A22" s="24">
+        <v>12</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="25">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="25">
-        <v>13.0</v>
-      </c>
-      <c r="B23" s="26" t="s">
+      <c r="C22" s="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75">
+      <c r="A23" s="24">
+        <v>12</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75">
+      <c r="A24" s="24">
+        <v>13</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="25">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="25">
-        <v>14.0</v>
-      </c>
-      <c r="B24" s="26" t="s">
+      <c r="C24" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75">
+      <c r="A25" s="24">
+        <v>14</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="25">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="25">
-        <v>15.0</v>
-      </c>
-      <c r="B25" s="26" t="s">
+      <c r="C25" s="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75">
+      <c r="A26" s="24">
+        <v>15</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="25">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="25">
-        <v>16.0</v>
-      </c>
-      <c r="B26" s="26" t="s">
+      <c r="C26" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75">
+      <c r="A27" s="24">
+        <v>16</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="25">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="25">
-        <v>17.0</v>
-      </c>
-      <c r="B27" s="26" t="s">
+      <c r="C27" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75">
+      <c r="A28" s="24">
+        <v>17</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="25">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="25">
-        <v>18.0</v>
-      </c>
-      <c r="B28" s="26" t="s">
+      <c r="C28" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75">
+      <c r="A29" s="24">
+        <v>18</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="25">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="25">
-        <v>19.0</v>
-      </c>
-      <c r="B29" s="26" t="s">
+      <c r="C29" s="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75">
+      <c r="A30" s="24">
+        <v>19</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="25">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="30" ht="45.75" customHeight="1">
-      <c r="A30" s="21" t="s">
+      <c r="C30" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45.75" customHeight="1">
+      <c r="A31" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="16"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5">
+      <c r="A32" s="16">
+        <v>1</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="28">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="B32" s="27" t="s">
+      <c r="C32" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.5">
+      <c r="A33" s="16">
+        <v>2</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="28">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="B33" s="27" t="s">
+      <c r="C33" s="27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.5">
+      <c r="A34" s="16">
+        <v>3</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="28">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="B34" s="27" t="s">
+      <c r="C34" s="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="30" customFormat="1" ht="19.5">
+      <c r="A35" s="16">
+        <v>4</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.5">
+      <c r="A36" s="16">
+        <v>5</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="28">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="B35" s="27" t="s">
+      <c r="C36" s="27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19.5">
+      <c r="A37" s="16">
+        <v>6</v>
+      </c>
+      <c r="B37" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="28">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="17">
-        <v>6.0</v>
-      </c>
-      <c r="B36" s="27" t="s">
+      <c r="C37" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19.5">
+      <c r="A38" s="16">
+        <v>7</v>
+      </c>
+      <c r="B38" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="28">
-        <v>26.0</v>
+      <c r="C38" s="27">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:B8"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1480,7 +1522,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -1491,7 +1533,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -1502,7 +1544,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1513,7 +1555,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1526,7 +1568,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1539,7 +1581,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1550,85 +1592,87 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
+      <c r="B8" s="32"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="16">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="13">
+        <v>2</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:B8"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1639,7 +1683,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -1650,7 +1694,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -1661,7 +1705,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1672,7 +1716,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1685,7 +1729,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1698,7 +1742,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1709,93 +1753,94 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
+      <c r="B8" s="32"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="16">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="13">
+        <v>2</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C15" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="13">
+        <v>3</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="30">
-        <v>38841.0</v>
+      <c r="C16" s="29">
+        <v>38841</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:B8"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>